--- a/cctvlog.xlsx
+++ b/cctvlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>uniqueid</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>fdfdghfhgrgwfffaggdsgs</t>
+  </si>
+  <si>
+    <t>fffddd</t>
   </si>
 </sst>
 </file>
@@ -402,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -483,6 +486,90 @@
         <v>45783.35497685185</v>
       </c>
       <c r="K2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>20250401</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45748</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>20250504</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45781</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="3">
+        <v>45783.35497685185</v>
+      </c>
+      <c r="K4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>20250520</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45797</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="3">
+        <v>45783.35497685185</v>
+      </c>
+      <c r="K5" t="s">
         <v>7</v>
       </c>
     </row>
